--- a/semesterTask/Tests.xlsx
+++ b/semesterTask/Tests.xlsx
@@ -233,25 +233,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13221248"/>
-        <c:axId val="13251712"/>
+        <c:axId val="104522496"/>
+        <c:axId val="104524032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13221248"/>
+        <c:axId val="104522496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13251712"/>
+        <c:crossAx val="104524032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13251712"/>
+        <c:axId val="104524032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -259,7 +259,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13221248"/>
+        <c:crossAx val="104522496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -272,7 +272,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -381,25 +381,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="110281088"/>
-        <c:axId val="110283392"/>
+        <c:axId val="104548608"/>
+        <c:axId val="104570880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110281088"/>
+        <c:axId val="104548608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110283392"/>
+        <c:crossAx val="104570880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110283392"/>
+        <c:axId val="104570880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +407,1789 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110281088"/>
+        <c:crossAx val="104548608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Time/Size(for 100 length)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Add</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23540266841644794"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$251</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="250"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$251</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="250"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="122803712"/>
+        <c:axId val="122802176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="122803712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122802176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="122802176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="122803712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Time/Size(for 10</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>00</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t> length)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Add</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="131084288"/>
+        <c:axId val="131086592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="131084288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131086592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131086592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131084288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -426,20 +2208,3194 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Time/Size (for 100 length)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>         </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>remove/contain</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$2:$S$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="246"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$T$2:$T$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="246"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="119283072"/>
+        <c:axId val="119281536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="119283072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119281536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="119281536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="119283072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Time/Size (for 1000 length)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>remove/contain</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>count5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Y$2:$Y$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="243"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Z$2:$Z$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="243"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="10666752"/>
+        <c:axId val="10664960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="10666752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10664960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10664960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10666752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -483,6 +5439,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -778,8 +5854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,7 +6224,8 @@
         <v>100</v>
       </c>
       <c r="P6">
-        <v>2290</v>
+        <f>ROUND(AVERAGE(M202:M251),0)</f>
+        <v>2091</v>
       </c>
       <c r="Q6">
         <v>10000</v>
@@ -7436,6 +12513,12 @@
       <c r="H202">
         <v>10000</v>
       </c>
+      <c r="M202">
+        <v>2068</v>
+      </c>
+      <c r="N202">
+        <v>10000</v>
+      </c>
       <c r="S202">
         <v>51</v>
       </c>
@@ -7462,6 +12545,12 @@
       <c r="H203">
         <v>10000</v>
       </c>
+      <c r="M203">
+        <v>2042</v>
+      </c>
+      <c r="N203">
+        <v>10000</v>
+      </c>
       <c r="S203">
         <v>51</v>
       </c>
@@ -7488,6 +12577,12 @@
       <c r="H204">
         <v>10000</v>
       </c>
+      <c r="M204">
+        <v>2131</v>
+      </c>
+      <c r="N204">
+        <v>10000</v>
+      </c>
       <c r="S204">
         <v>58</v>
       </c>
@@ -7514,6 +12609,12 @@
       <c r="H205">
         <v>10000</v>
       </c>
+      <c r="M205">
+        <v>2165</v>
+      </c>
+      <c r="N205">
+        <v>10000</v>
+      </c>
       <c r="S205">
         <v>53</v>
       </c>
@@ -7540,6 +12641,12 @@
       <c r="H206">
         <v>10000</v>
       </c>
+      <c r="M206">
+        <v>2057</v>
+      </c>
+      <c r="N206">
+        <v>10000</v>
+      </c>
       <c r="S206">
         <v>51</v>
       </c>
@@ -7566,6 +12673,12 @@
       <c r="H207">
         <v>10000</v>
       </c>
+      <c r="M207">
+        <v>2084</v>
+      </c>
+      <c r="N207">
+        <v>10000</v>
+      </c>
       <c r="S207">
         <v>50</v>
       </c>
@@ -7592,6 +12705,12 @@
       <c r="H208">
         <v>10000</v>
       </c>
+      <c r="M208">
+        <v>2056</v>
+      </c>
+      <c r="N208">
+        <v>10000</v>
+      </c>
       <c r="S208">
         <v>53</v>
       </c>
@@ -7618,6 +12737,12 @@
       <c r="H209">
         <v>10000</v>
       </c>
+      <c r="M209">
+        <v>2072</v>
+      </c>
+      <c r="N209">
+        <v>10000</v>
+      </c>
       <c r="S209">
         <v>51</v>
       </c>
@@ -7644,6 +12769,12 @@
       <c r="H210">
         <v>10000</v>
       </c>
+      <c r="M210">
+        <v>2077</v>
+      </c>
+      <c r="N210">
+        <v>10000</v>
+      </c>
       <c r="S210">
         <v>56</v>
       </c>
@@ -7670,6 +12801,12 @@
       <c r="H211">
         <v>10000</v>
       </c>
+      <c r="M211">
+        <v>2129</v>
+      </c>
+      <c r="N211">
+        <v>10000</v>
+      </c>
       <c r="S211">
         <v>55</v>
       </c>
@@ -7696,6 +12833,12 @@
       <c r="H212">
         <v>10000</v>
       </c>
+      <c r="M212">
+        <v>2100</v>
+      </c>
+      <c r="N212">
+        <v>10000</v>
+      </c>
       <c r="S212">
         <v>50</v>
       </c>
@@ -7722,6 +12865,12 @@
       <c r="H213">
         <v>10000</v>
       </c>
+      <c r="M213">
+        <v>2101</v>
+      </c>
+      <c r="N213">
+        <v>10000</v>
+      </c>
       <c r="S213">
         <v>51</v>
       </c>
@@ -7748,6 +12897,12 @@
       <c r="H214">
         <v>10000</v>
       </c>
+      <c r="M214">
+        <v>2064</v>
+      </c>
+      <c r="N214">
+        <v>10000</v>
+      </c>
       <c r="S214">
         <v>54</v>
       </c>
@@ -7774,6 +12929,12 @@
       <c r="H215">
         <v>10000</v>
       </c>
+      <c r="M215">
+        <v>2100</v>
+      </c>
+      <c r="N215">
+        <v>10000</v>
+      </c>
       <c r="S215">
         <v>52</v>
       </c>
@@ -7800,6 +12961,12 @@
       <c r="H216">
         <v>10000</v>
       </c>
+      <c r="M216">
+        <v>2111</v>
+      </c>
+      <c r="N216">
+        <v>10000</v>
+      </c>
       <c r="S216">
         <v>50</v>
       </c>
@@ -7826,6 +12993,12 @@
       <c r="H217">
         <v>10000</v>
       </c>
+      <c r="M217">
+        <v>2097</v>
+      </c>
+      <c r="N217">
+        <v>10000</v>
+      </c>
       <c r="S217">
         <v>53</v>
       </c>
@@ -7852,6 +13025,12 @@
       <c r="H218">
         <v>10000</v>
       </c>
+      <c r="M218">
+        <v>2063</v>
+      </c>
+      <c r="N218">
+        <v>10000</v>
+      </c>
       <c r="S218">
         <v>59</v>
       </c>
@@ -7878,6 +13057,12 @@
       <c r="H219">
         <v>10000</v>
       </c>
+      <c r="M219">
+        <v>2068</v>
+      </c>
+      <c r="N219">
+        <v>10000</v>
+      </c>
       <c r="S219">
         <v>52</v>
       </c>
@@ -7904,6 +13089,12 @@
       <c r="H220">
         <v>10000</v>
       </c>
+      <c r="M220">
+        <v>2154</v>
+      </c>
+      <c r="N220">
+        <v>10000</v>
+      </c>
       <c r="S220">
         <v>53</v>
       </c>
@@ -7930,6 +13121,12 @@
       <c r="H221">
         <v>10000</v>
       </c>
+      <c r="M221">
+        <v>2099</v>
+      </c>
+      <c r="N221">
+        <v>10000</v>
+      </c>
       <c r="S221">
         <v>53</v>
       </c>
@@ -7956,6 +13153,12 @@
       <c r="H222">
         <v>10000</v>
       </c>
+      <c r="M222">
+        <v>2062</v>
+      </c>
+      <c r="N222">
+        <v>10000</v>
+      </c>
       <c r="S222">
         <v>51</v>
       </c>
@@ -7982,6 +13185,12 @@
       <c r="H223">
         <v>10000</v>
       </c>
+      <c r="M223">
+        <v>2153</v>
+      </c>
+      <c r="N223">
+        <v>10000</v>
+      </c>
       <c r="S223">
         <v>52</v>
       </c>
@@ -8008,6 +13217,12 @@
       <c r="H224">
         <v>10000</v>
       </c>
+      <c r="M224">
+        <v>2085</v>
+      </c>
+      <c r="N224">
+        <v>10000</v>
+      </c>
       <c r="S224">
         <v>51</v>
       </c>
@@ -8034,6 +13249,12 @@
       <c r="H225">
         <v>10000</v>
       </c>
+      <c r="M225">
+        <v>2067</v>
+      </c>
+      <c r="N225">
+        <v>10000</v>
+      </c>
       <c r="S225">
         <v>52</v>
       </c>
@@ -8060,6 +13281,12 @@
       <c r="H226">
         <v>10000</v>
       </c>
+      <c r="M226">
+        <v>2037</v>
+      </c>
+      <c r="N226">
+        <v>10000</v>
+      </c>
       <c r="S226">
         <v>53</v>
       </c>
@@ -8086,6 +13313,12 @@
       <c r="H227">
         <v>10000</v>
       </c>
+      <c r="M227">
+        <v>2083</v>
+      </c>
+      <c r="N227">
+        <v>10000</v>
+      </c>
       <c r="S227">
         <v>50</v>
       </c>
@@ -8112,6 +13345,12 @@
       <c r="H228">
         <v>10000</v>
       </c>
+      <c r="M228">
+        <v>2067</v>
+      </c>
+      <c r="N228">
+        <v>10000</v>
+      </c>
       <c r="S228">
         <v>52</v>
       </c>
@@ -8138,6 +13377,12 @@
       <c r="H229">
         <v>10000</v>
       </c>
+      <c r="M229">
+        <v>2078</v>
+      </c>
+      <c r="N229">
+        <v>10000</v>
+      </c>
       <c r="S229">
         <v>51</v>
       </c>
@@ -8164,6 +13409,12 @@
       <c r="H230">
         <v>10000</v>
       </c>
+      <c r="M230">
+        <v>2095</v>
+      </c>
+      <c r="N230">
+        <v>10000</v>
+      </c>
       <c r="S230">
         <v>53</v>
       </c>
@@ -8190,6 +13441,12 @@
       <c r="H231">
         <v>10000</v>
       </c>
+      <c r="M231">
+        <v>2057</v>
+      </c>
+      <c r="N231">
+        <v>10000</v>
+      </c>
       <c r="S231">
         <v>50</v>
       </c>
@@ -8216,6 +13473,12 @@
       <c r="H232">
         <v>10000</v>
       </c>
+      <c r="M232">
+        <v>2072</v>
+      </c>
+      <c r="N232">
+        <v>10000</v>
+      </c>
       <c r="S232">
         <v>51</v>
       </c>
@@ -8242,6 +13505,12 @@
       <c r="H233">
         <v>10000</v>
       </c>
+      <c r="M233">
+        <v>2119</v>
+      </c>
+      <c r="N233">
+        <v>10000</v>
+      </c>
       <c r="S233">
         <v>54</v>
       </c>
@@ -8268,6 +13537,12 @@
       <c r="H234">
         <v>10000</v>
       </c>
+      <c r="M234">
+        <v>2141</v>
+      </c>
+      <c r="N234">
+        <v>10000</v>
+      </c>
       <c r="S234">
         <v>51</v>
       </c>
@@ -8294,6 +13569,12 @@
       <c r="H235">
         <v>10000</v>
       </c>
+      <c r="M235">
+        <v>2072</v>
+      </c>
+      <c r="N235">
+        <v>10000</v>
+      </c>
       <c r="S235">
         <v>51</v>
       </c>
@@ -8320,6 +13601,12 @@
       <c r="H236">
         <v>10000</v>
       </c>
+      <c r="M236">
+        <v>2061</v>
+      </c>
+      <c r="N236">
+        <v>10000</v>
+      </c>
       <c r="S236">
         <v>54</v>
       </c>
@@ -8346,6 +13633,12 @@
       <c r="H237">
         <v>10000</v>
       </c>
+      <c r="M237">
+        <v>2229</v>
+      </c>
+      <c r="N237">
+        <v>10000</v>
+      </c>
       <c r="S237">
         <v>58</v>
       </c>
@@ -8372,6 +13665,12 @@
       <c r="H238">
         <v>10000</v>
       </c>
+      <c r="M238">
+        <v>2273</v>
+      </c>
+      <c r="N238">
+        <v>10000</v>
+      </c>
       <c r="S238">
         <v>51</v>
       </c>
@@ -8398,6 +13697,12 @@
       <c r="H239">
         <v>10000</v>
       </c>
+      <c r="M239">
+        <v>2103</v>
+      </c>
+      <c r="N239">
+        <v>10000</v>
+      </c>
       <c r="S239">
         <v>50</v>
       </c>
@@ -8424,6 +13729,12 @@
       <c r="H240">
         <v>10000</v>
       </c>
+      <c r="M240">
+        <v>2107</v>
+      </c>
+      <c r="N240">
+        <v>10000</v>
+      </c>
       <c r="S240">
         <v>56</v>
       </c>
@@ -8450,6 +13761,12 @@
       <c r="H241">
         <v>10000</v>
       </c>
+      <c r="M241">
+        <v>2034</v>
+      </c>
+      <c r="N241">
+        <v>10000</v>
+      </c>
       <c r="S241">
         <v>53</v>
       </c>
@@ -8476,6 +13793,12 @@
       <c r="H242">
         <v>10000</v>
       </c>
+      <c r="M242">
+        <v>2033</v>
+      </c>
+      <c r="N242">
+        <v>10000</v>
+      </c>
       <c r="S242">
         <v>52</v>
       </c>
@@ -8502,6 +13825,12 @@
       <c r="H243">
         <v>10000</v>
       </c>
+      <c r="M243">
+        <v>2072</v>
+      </c>
+      <c r="N243">
+        <v>10000</v>
+      </c>
       <c r="S243">
         <v>55</v>
       </c>
@@ -8528,6 +13857,12 @@
       <c r="H244">
         <v>10000</v>
       </c>
+      <c r="M244">
+        <v>2040</v>
+      </c>
+      <c r="N244">
+        <v>10000</v>
+      </c>
       <c r="S244">
         <v>54</v>
       </c>
@@ -8554,6 +13889,12 @@
       <c r="H245">
         <v>10000</v>
       </c>
+      <c r="M245">
+        <v>2061</v>
+      </c>
+      <c r="N245">
+        <v>10000</v>
+      </c>
       <c r="S245">
         <v>55</v>
       </c>
@@ -8574,6 +13915,12 @@
       <c r="H246">
         <v>10000</v>
       </c>
+      <c r="M246">
+        <v>2163</v>
+      </c>
+      <c r="N246">
+        <v>10000</v>
+      </c>
       <c r="S246">
         <v>60</v>
       </c>
@@ -8594,6 +13941,12 @@
       <c r="H247">
         <v>10000</v>
       </c>
+      <c r="M247">
+        <v>2058</v>
+      </c>
+      <c r="N247">
+        <v>10000</v>
+      </c>
       <c r="S247">
         <v>50</v>
       </c>
@@ -8612,6 +13965,12 @@
         <v>30</v>
       </c>
       <c r="H248">
+        <v>10000</v>
+      </c>
+      <c r="M248">
+        <v>2058</v>
+      </c>
+      <c r="N248">
         <v>10000</v>
       </c>
     </row>
@@ -8628,6 +13987,12 @@
       <c r="H249">
         <v>10000</v>
       </c>
+      <c r="M249">
+        <v>2091</v>
+      </c>
+      <c r="N249">
+        <v>10000</v>
+      </c>
     </row>
     <row r="250" spans="1:26">
       <c r="A250">
@@ -8642,6 +14007,12 @@
       <c r="H250">
         <v>10000</v>
       </c>
+      <c r="M250">
+        <v>2072</v>
+      </c>
+      <c r="N250">
+        <v>10000</v>
+      </c>
     </row>
     <row r="251" spans="1:26">
       <c r="A251">
@@ -8654,6 +14025,12 @@
         <v>21</v>
       </c>
       <c r="H251">
+        <v>10000</v>
+      </c>
+      <c r="M251">
+        <v>2051</v>
+      </c>
+      <c r="N251">
         <v>10000</v>
       </c>
     </row>
